--- a/test_cases/TC_04.xlsx
+++ b/test_cases/TC_04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lucas/Documents/GitHub/TestingAplicaciones-BeSharps-TPO/test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AFFD210-95DE-EB45-92A3-6D3B2E01789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738983D8-5396-A64E-A7E4-FB80F6804F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14820" xr2:uid="{10058742-3415-6C4A-B129-C2DAFD6A34D6}"/>
   </bookViews>
@@ -35,9 +35,188 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="58">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>QA Tester’s Log</t>
+  </si>
+  <si>
+    <t>Review comments from Jane incorprated in version 2.1</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>TC Priority (High, Normal, Low)</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>S #</t>
+  </si>
+  <si>
+    <t>Prerequisites:</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Access to Chrome Browser</t>
+  </si>
+  <si>
+    <t>Test Scenario</t>
+  </si>
+  <si>
+    <t>User Stories covered</t>
+  </si>
+  <si>
+    <t>Automation Status</t>
+  </si>
+  <si>
+    <t>Not Automated</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step Details</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Navigate to http://demo.guru99.com</t>
+  </si>
+  <si>
+    <t>Site should open</t>
+  </si>
+  <si>
+    <t>TC-4401</t>
+  </si>
+  <si>
+    <t>Test the shopping cart function</t>
+  </si>
+  <si>
+    <t>Verify the user can add a product to the shopping and head to check-out</t>
+  </si>
+  <si>
+    <t>Select a Product</t>
+  </si>
+  <si>
+    <t>Click Add Product to Shoping Cart</t>
+  </si>
+  <si>
+    <t>Click Check-out</t>
+  </si>
+  <si>
+    <t>Customer is sent to Product page</t>
+  </si>
+  <si>
+    <t>Registered mail address</t>
+  </si>
+  <si>
+    <t>Correspondig Password</t>
+  </si>
+  <si>
+    <t>Access to Internet</t>
+  </si>
+  <si>
+    <t>Password = Af12!434c</t>
+  </si>
+  <si>
+    <t>Email = guru99test@gmail.com</t>
+  </si>
+  <si>
+    <t>Matias Krivitzki</t>
+  </si>
+  <si>
+    <t>Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Test the Continue Shopping Function</t>
+  </si>
+  <si>
+    <t>Verify the user can add a product to the shopping, continue shopping and then head to check-out</t>
+  </si>
+  <si>
+    <t>PE-44</t>
+  </si>
+  <si>
+    <t>Click Continue Shopping</t>
+  </si>
+  <si>
+    <t>Product is added to shopping cart, Customer shown informational screen about the product</t>
+  </si>
+  <si>
+    <t>Customer is sent to Check-out</t>
+  </si>
+  <si>
+    <t>Screen closes and customer is sent to Landing Page</t>
+  </si>
+  <si>
+    <t>TC-4402</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Lucas Von Elm</t>
+  </si>
+  <si>
+    <t>Tester: Jane Williams</t>
+  </si>
+  <si>
+    <t>Tester: Krivitzki, Matias</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,16 +224,124 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -62,15 +349,437 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2984E202-69EF-E744-B024-8802CB472885}"/>
+    <cellStyle name="Note 2" xfId="1" xr:uid="{FEA2FFB8-78D3-9543-B876-31F02879BD28}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -382,12 +1091,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9224AC89-042E-F045-ABF7-2651326B1542}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="H5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>4</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>1</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>2</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="37"/>
+      <c r="D19" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>3</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>4</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="24"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="24"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="43"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:15" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="H36" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+    </row>
+    <row r="37" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="32"/>
+    </row>
+    <row r="38" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38" s="34"/>
+      <c r="L38" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="34"/>
+      <c r="N38" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="34"/>
+    </row>
+    <row r="39" spans="1:15" ht="46" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>1</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="M39" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N39" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>2</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>3</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="18">
+        <v>3</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="H41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>4</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H43" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M43" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="48"/>
+      <c r="H44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="45"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="51"/>
+      <c r="H45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="H48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="31"/>
+      <c r="L48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="31"/>
+      <c r="N48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>1</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="37"/>
+      <c r="D49" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="37"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
+        <v>2</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="37"/>
+      <c r="D50" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
+        <v>3</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="37"/>
+      <c r="D51" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
+        <v>4</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
+        <v>5</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
+        <v>6</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="37"/>
+      <c r="D54" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="37"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>7</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="37"/>
+      <c r="D55" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="37"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="36"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="104">
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>